--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>995416.0253187432</v>
+        <v>955811.5182389371</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367731</v>
+        <v>4171427.157673262</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8940018.605191585</v>
+        <v>10044027.03453991</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>263.7138800015061</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>19.98946990210312</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>79.51149230610422</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>93.5095528624322</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>79.65152852123926</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>76.90841467931192</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>156.8503534212811</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>12.28184589708156</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>154.8684696293299</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>121.7681242419957</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>190.2606141514329</v>
       </c>
       <c r="W6" t="n">
-        <v>40.82456263752862</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>137.9276614055778</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.31229205284858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>282.7385435031564</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>208.2474868886327</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.55276019063742</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>170.981233410929</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>280.3844735424515</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>226.6014924540152</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.19777004715</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>198.3282681603478</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>68.2876242256657</v>
       </c>
       <c r="E14" t="n">
-        <v>32.97950884736273</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>29.13308527043772</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.7576914549247</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>120.078715911287</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>83.01174010056452</v>
+        <v>181.4487096095779</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>218.8546041744735</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>144.6145277840848</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>181.1375494785993</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>8.812699961999016</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>356.9651380164159</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>5.364291051780883</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>146.1579437348916</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>41.56030045993359</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>188.2196394312111</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>80.00124118081825</v>
+        <v>95.81514163764196</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>79.76470074482877</v>
+        <v>313.7825241382121</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>45.42084471718056</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.25108662428449</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610059</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.8019945406872</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>67.88571179025803</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>49.54974036904216</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>58.93891326891439</v>
       </c>
     </row>
     <row r="38">
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.1661532342256</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>52.23490948285971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>249.8016791897709</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>328.0423659626495</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>144.2875934942265</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>161.059121501438</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>188.605944229152</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>166.3544833279768</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>59.90320919298844</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>149.4642351393303</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="C2" t="n">
-        <v>287.4747669672984</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="D2" t="n">
-        <v>21.09711040012049</v>
+        <v>574.0438072739744</v>
       </c>
       <c r="E2" t="n">
-        <v>21.09711040012049</v>
+        <v>574.0438072739744</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>307.6661507067965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>41.28849413961859</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>41.28849413961859</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052544</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="U2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="V2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="X2" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>840.4214638411523</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.0062290966407</v>
+        <v>491.0191073156138</v>
       </c>
       <c r="C3" t="n">
-        <v>101.5531998155137</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>101.5531998155137</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4409,52 +4409,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098642</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="V3" t="n">
-        <v>906.2192216098642</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="W3" t="n">
-        <v>651.9818648816627</v>
+        <v>585.4732011160504</v>
       </c>
       <c r="X3" t="n">
-        <v>651.9818648816627</v>
+        <v>585.4732011160504</v>
       </c>
       <c r="Y3" t="n">
-        <v>444.2215661167087</v>
+        <v>585.4732011160504</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>282.9430042150921</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>114.0068212871851</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>114.0068212871851</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>114.0068212871851</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>114.0068212871851</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287945</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S4" t="n">
-        <v>767.628291415171</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="T4" t="n">
-        <v>542.1592551731853</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="U4" t="n">
-        <v>275.7815986060074</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="V4" t="n">
-        <v>21.09711040012049</v>
+        <v>464.5914690453318</v>
       </c>
       <c r="W4" t="n">
-        <v>21.09711040012049</v>
+        <v>464.5914690453318</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09711040012049</v>
+        <v>464.5914690453318</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>464.5914690453318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.86543639135737</v>
+        <v>1570.273714272918</v>
       </c>
       <c r="C5" t="n">
-        <v>33.86543639135737</v>
+        <v>1201.311197332506</v>
       </c>
       <c r="D5" t="n">
-        <v>33.86543639135737</v>
+        <v>843.045498725756</v>
       </c>
       <c r="E5" t="n">
-        <v>33.86543639135737</v>
+        <v>457.2572461275118</v>
       </c>
       <c r="F5" t="n">
-        <v>33.86543639135737</v>
+        <v>46.2713413379043</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780279</v>
+        <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818696</v>
+        <v>270.9975490818684</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373992</v>
+        <v>509.5409587373972</v>
       </c>
       <c r="M5" t="n">
-        <v>806.635901817649</v>
+        <v>806.6359018176465</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.15196005897</v>
+        <v>1113.151960058967</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836698</v>
+        <v>1389.251120836694</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.39436592169</v>
+        <v>1590.394365921685</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="U5" t="n">
-        <v>1536.839021962485</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="V5" t="n">
-        <v>1536.839021962485</v>
+        <v>1570.273714272918</v>
       </c>
       <c r="W5" t="n">
-        <v>1184.070366692371</v>
+        <v>1570.273714272918</v>
       </c>
       <c r="X5" t="n">
-        <v>810.6046084312909</v>
+        <v>1570.273714272918</v>
       </c>
       <c r="Y5" t="n">
-        <v>420.4652764554792</v>
+        <v>1570.273714272918</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>897.7242804286708</v>
+        <v>663.0248883123061</v>
       </c>
       <c r="C6" t="n">
-        <v>723.2712511475438</v>
+        <v>488.5718590311791</v>
       </c>
       <c r="D6" t="n">
-        <v>574.3368414862925</v>
+        <v>339.6374493699278</v>
       </c>
       <c r="E6" t="n">
-        <v>415.099386480837</v>
+        <v>180.3999943644723</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5648285077219</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="G6" t="n">
-        <v>131.4666490605862</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324457</v>
+        <v>184.305991640249</v>
       </c>
       <c r="K6" t="n">
-        <v>181.40299586505</v>
+        <v>306.233120852054</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877852</v>
+        <v>516.5017339747886</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445267</v>
+        <v>781.2321559315294</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562548</v>
+        <v>1200.316931274576</v>
       </c>
       <c r="O6" t="n">
-        <v>1182.095335530453</v>
+        <v>1439.864542448773</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.618711034412</v>
+        <v>1612.789553063242</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.078019232577</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843114</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="T6" t="n">
-        <v>1550.180157843114</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="U6" t="n">
-        <v>1550.180157843114</v>
+        <v>1693.271819567863</v>
       </c>
       <c r="V6" t="n">
-        <v>1315.028049611371</v>
+        <v>1501.089381031062</v>
       </c>
       <c r="W6" t="n">
-        <v>1273.791117654272</v>
+        <v>1246.852024302861</v>
       </c>
       <c r="X6" t="n">
-        <v>1065.939617448739</v>
+        <v>1039.000524097328</v>
       </c>
       <c r="Y6" t="n">
-        <v>1065.939617448739</v>
+        <v>831.2402253323742</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1083.595221745717</v>
+        <v>342.1224894259084</v>
       </c>
       <c r="C7" t="n">
-        <v>914.6590388178096</v>
+        <v>173.1863064980015</v>
       </c>
       <c r="D7" t="n">
-        <v>764.5423994054738</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="E7" t="n">
-        <v>616.6293058230807</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7393583251704</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590866</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135737</v>
+        <v>33.86543639135726</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652207</v>
+        <v>36.28512133652183</v>
       </c>
       <c r="K7" t="n">
-        <v>170.09824371286</v>
+        <v>170.0982437128595</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119591</v>
+        <v>396.8594047119583</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191543</v>
+        <v>646.3363778191532</v>
       </c>
       <c r="N7" t="n">
-        <v>895.315962536166</v>
+        <v>895.3159625361645</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580467</v>
+        <v>1268.828805580465</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.862163397015</v>
+        <v>1041.177675191126</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.862163397015</v>
+        <v>751.7605051541655</v>
       </c>
       <c r="X7" t="n">
-        <v>1295.862163397015</v>
+        <v>523.7709542561481</v>
       </c>
       <c r="Y7" t="n">
-        <v>1265.243686575956</v>
+        <v>523.7709542561481</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.249159503017</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="C8" t="n">
-        <v>1206.286642562605</v>
+        <v>1862.313924116173</v>
       </c>
       <c r="D8" t="n">
-        <v>848.0209439558549</v>
+        <v>1504.048225509423</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2326913576107</v>
+        <v>1118.259972911179</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800311</v>
+        <v>707.2740681215712</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>2351.988331542951</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y8" t="n">
-        <v>1961.848999567139</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="9">
@@ -4880,34 +4880,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080695</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>520.9672349299731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>370.8505955176373</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>222.9375019352442</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1859.132475219477</v>
+        <v>2234.477335940398</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.169958279065</v>
+        <v>1865.514818999986</v>
       </c>
       <c r="D11" t="n">
-        <v>1490.169958279065</v>
+        <v>1507.249120393236</v>
       </c>
       <c r="E11" t="n">
-        <v>1104.381705680821</v>
+        <v>1121.460867794992</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>710.4749630053841</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839474</v>
+        <v>295.4025128503806</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136268</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.33740552049</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.33740552049</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.33740552049</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.33740552049</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.871647259411</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.732315283599</v>
+        <v>2621.07717600452</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158138</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1238.038871968309</v>
+        <v>1758.295537883725</v>
       </c>
       <c r="C14" t="n">
-        <v>869.0763550278978</v>
+        <v>1389.333020943313</v>
       </c>
       <c r="D14" t="n">
-        <v>510.8106564211473</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5287,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5299,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269323</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X14" t="n">
-        <v>2014.778044008243</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y14" t="n">
-        <v>1624.638712032431</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.0249360836225</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0249360836225</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>142.0249360836225</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0249360836225</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>142.0249360836225</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>142.0249360836225</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0249360836225</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088493</v>
@@ -5463,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242374</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368017</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621305</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W16" t="n">
-        <v>590.80706612517</v>
+        <v>1326.280305378586</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271526</v>
+        <v>1098.290754480569</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836225</v>
+        <v>877.4981753370386</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.9108438165264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>754.9746608886195</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.191681214136</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W19" t="n">
-        <v>1554.341438688313</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>1326.351887790296</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>1105.559308646766</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5764,7 +5764,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5773,25 +5773,25 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2740.71941966821</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W20" t="n">
-        <v>2740.71941966821</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X20" t="n">
         <v>2367.25366140713</v>
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752.7622949738579</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>583.826112045951</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>433.7094726336153</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>285.7963790512222</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.192889845645</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>1155.203338947628</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>934.4107598040977</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1127.748203495404</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C23" t="n">
-        <v>758.7856865549927</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D23" t="n">
-        <v>749.8839694216604</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E23" t="n">
-        <v>364.0957168234162</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
         <v>364.0957168234162</v>
@@ -6031,10 +6031,10 @@
         <v>2277.953133796418</v>
       </c>
       <c r="X23" t="n">
-        <v>1904.487375535338</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y23" t="n">
-        <v>1514.348043559526</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.8965081646988</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C25" t="n">
-        <v>369.960325236792</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D25" t="n">
-        <v>219.8436858244562</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>71.93059224206311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
         <v>66.51211643218343</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1424.011591242373</v>
+        <v>1557.893646057118</v>
       </c>
       <c r="V25" t="n">
-        <v>1169.327103036486</v>
+        <v>1303.209157851231</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.327103036486</v>
+        <v>1013.791987814271</v>
       </c>
       <c r="X25" t="n">
-        <v>941.3375521384687</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.5449729949386</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1133.32083113111</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C26" t="n">
-        <v>764.3583141906979</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D26" t="n">
-        <v>406.0926155839475</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E26" t="n">
-        <v>406.0926155839475</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2967.357304045808</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2636.294416702237</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W26" t="n">
-        <v>2283.525761432123</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X26" t="n">
-        <v>1910.060003171043</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1519.920671195231</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.2880032601528</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3518203322459</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>1705.527932658019</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W28" t="n">
-        <v>1624.71859813194</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X28" t="n">
-        <v>1396.729047233923</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.936468090393</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1698.509627919559</v>
+        <v>1964.273285499503</v>
       </c>
       <c r="C29" t="n">
-        <v>1698.509627919559</v>
+        <v>1595.310768559091</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2489.924953962485</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>2320.988771034578</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>2170.872131622242</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.959038039849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.605821609171</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>3325.605821609171</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>3120.355548834272</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>2892.365997936255</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>2671.573418792725</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6712,7 +6712,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6721,7 +6721,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W32" t="n">
-        <v>3119.628073993394</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X32" t="n">
-        <v>2746.162315732314</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3257.034395558405</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3051.056647942627</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794325</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W35" t="n">
-        <v>2755.806928794325</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X35" t="n">
-        <v>2382.341170533245</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y35" t="n">
-        <v>2382.341170533245</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>822.6111008985771</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C37" t="n">
-        <v>822.6111008985771</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1548.361223971664</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1293.676735765777</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1004.259565728817</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>1004.259565728817</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1004.259565728817</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>1590.807527238424</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939214</v>
+        <v>1221.845010298012</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324635</v>
+        <v>863.5793116912616</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7910590930174</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7910590930174</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C40" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D40" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251691</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271517</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y40" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7444,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.4780323548192</v>
+        <v>531.3099827059882</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5418494269123</v>
+        <v>362.3737997780813</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>212.2571603657456</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.59460854119</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.908627226606</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X43" t="n">
-        <v>935.9190763285891</v>
+        <v>933.7510266797581</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.126497185059</v>
+        <v>712.9584475362279</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2196.097994299122</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C44" t="n">
-        <v>1827.13547735871</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D44" t="n">
-        <v>1468.86977875196</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E44" t="n">
-        <v>1083.081526153716</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F44" t="n">
-        <v>672.0956213641082</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
-        <v>257.0231712091046</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>3047.280321491845</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339056</v>
+        <v>2694.511666221731</v>
       </c>
       <c r="X44" t="n">
-        <v>2972.837166339056</v>
+        <v>2321.045907960651</v>
       </c>
       <c r="Y44" t="n">
-        <v>2582.697834363244</v>
+        <v>1930.906575984839</v>
       </c>
     </row>
     <row r="45">
@@ -7718,28 +7718,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>403.1511359853714</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574644</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574644</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1866.786255974363</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.683389100006</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.998900894119</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>1033.581730857159</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>805.5921799591412</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.799600815611</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069115</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157936</v>
+        <v>25.82445471157965</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>134.2819009407258</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>65.2508736257476</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>14.75946716602961</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688979</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
-        <v>21.89339468985681</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>132.778223297119</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22631,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>77.99355193416169</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>47.86881082231267</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.23551194906236</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813365</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>210.870420523391</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.2723612992462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>161.4836137898363</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>115.2459207102716</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>126.49157219926</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>68.0062719333053</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944099</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.38138722868936</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>286.3954173950173</v>
       </c>
       <c r="E14" t="n">
-        <v>348.950861224899</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>150.6988949114996</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491336</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>207.6735425588479</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>203.5112582360265</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>108.8976542956614</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>225.1165728943842</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>345.870341658684</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>24.96523205584583</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>140.0567569711503</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>140.0538944707213</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>209.4348714989684</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>139.5326190389238</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>206.5217571557727</v>
+        <v>190.7078566989491</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>274.9183408758542</v>
+        <v>40.90051748247089</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>319.852047053827</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>371.9868520317691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>182.1679443159942</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>345.9318471227934</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>41.30204999791781</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>99.0657326491702</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>159.6457400831804</v>
       </c>
     </row>
     <row r="38">
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>3.755572419227803</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.335964134057065</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>21.1986027547635</v>
+        <v>222.7020862222421</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.146369152342658</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>125.463876835153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0018201581684</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>161.3977751421581</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>159.6457400831808</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>69.12041821276452</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>500256.1906029622</v>
+        <v>995986.5195670327</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>606051.9445529029</v>
+        <v>997393.6587113787</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>748781.5537677736</v>
+        <v>999699.7644185732</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>825712.3651103581</v>
+        <v>825712.3651103579</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825712.3651103579</v>
+        <v>825712.3651103578</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825712.3651103578</v>
+        <v>825712.3651103576</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825712.3651103578</v>
+        <v>825712.3651103579</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825712.3651103579</v>
+        <v>825712.3651103576</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825712.3651103578</v>
+        <v>825712.3651103576</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825712.3651103578</v>
+        <v>825712.365110358</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825712.3651103576</v>
+        <v>825712.3651103578</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224363.2393168237</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="C2" t="n">
-        <v>272208.0211027212</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="D2" t="n">
-        <v>336568.7935437395</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680129</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="G2" t="n">
         <v>375096.8088680128</v>
       </c>
       <c r="H2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="I2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="J2" t="n">
         <v>375096.8088680127</v>
@@ -26346,13 +26346,13 @@
         <v>375096.8088680127</v>
       </c>
       <c r="M2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="N2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="O2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="P2" t="n">
         <v>375096.8088680127</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739506</v>
+        <v>176672.6241739491</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381907</v>
+        <v>223886.3093819084</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171912</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.154419114</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.9815464081</v>
+        <v>41076.98154640786</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946814</v>
+        <v>54988.29121946844</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341503</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10965.07562050204</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="C4" t="n">
-        <v>12496.16441998917</v>
+        <v>198633.6358683834</v>
       </c>
       <c r="D4" t="n">
-        <v>14971.45584523218</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.57120705453</v>
+        <v>7940.571207054563</v>
       </c>
       <c r="F4" t="n">
-        <v>7940.57120705453</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="G4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.571207054541</v>
       </c>
       <c r="H4" t="n">
         <v>7940.571207054552</v>
@@ -26472,19 +26472,19 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923118</v>
+        <v>75746.87167923107</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139334</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.34056139331</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-529737.6200991374</v>
+        <v>-538316.6777683349</v>
       </c>
       <c r="C6" t="n">
-        <v>7292.360829550176</v>
+        <v>519.841703792612</v>
       </c>
       <c r="D6" t="n">
-        <v>4773.255876755604</v>
+        <v>430.8913417390286</v>
       </c>
       <c r="E6" t="n">
-        <v>110776.9172823738</v>
+        <v>107300.7279843133</v>
       </c>
       <c r="F6" t="n">
-        <v>292849.897099565</v>
+        <v>289373.7078015035</v>
       </c>
       <c r="G6" t="n">
-        <v>292849.8970995653</v>
+        <v>289373.7078015037</v>
       </c>
       <c r="H6" t="n">
-        <v>292849.897099565</v>
+        <v>289373.7078015039</v>
       </c>
       <c r="I6" t="n">
-        <v>292849.897099565</v>
+        <v>289373.7078015038</v>
       </c>
       <c r="J6" t="n">
-        <v>223850.7426804508</v>
+        <v>220374.5533823898</v>
       </c>
       <c r="K6" t="n">
-        <v>251772.9155531569</v>
+        <v>248296.7262550961</v>
       </c>
       <c r="L6" t="n">
-        <v>237861.6058800968</v>
+        <v>234385.4165820354</v>
       </c>
       <c r="M6" t="n">
-        <v>245297.6313061499</v>
+        <v>241821.442008089</v>
       </c>
       <c r="N6" t="n">
-        <v>292849.897099565</v>
+        <v>289373.7078015038</v>
       </c>
       <c r="O6" t="n">
-        <v>292849.897099565</v>
+        <v>289373.7078015038</v>
       </c>
       <c r="P6" t="n">
-        <v>292849.8970995649</v>
+        <v>289373.7078015038</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908065</v>
+        <v>751.4467899908053</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="G3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1089.776700593299</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26792,46 +26792,46 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919671</v>
+        <v>423.3179548919658</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213283</v>
+        <v>137.3917762213271</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267328</v>
+        <v>182.6181021267339</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,16 +27014,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.604074890461</v>
+        <v>159.6040748904597</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080717</v>
+        <v>217.2668772080731</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904608</v>
+        <v>159.6040748904598</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080719</v>
+        <v>217.2668772080731</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890461</v>
+        <v>159.6040748904597</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080717</v>
+        <v>217.2668772080731</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>95.31714964479399</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>73.02363078743514</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>89.97525235923466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539876</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.9841342281392</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813373</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>42.53997299799241</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10.68781161263459</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>128.8091592697975</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>141.7538398541668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053491</v>
+        <v>3.020891618053486</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339032</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050073</v>
+        <v>116.4629241050071</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677677</v>
+        <v>256.3943999677673</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599721</v>
+        <v>384.2687421599715</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159767</v>
+        <v>476.719354015976</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285354</v>
+        <v>530.4421353285346</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383299</v>
+        <v>539.0252436383291</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113105</v>
+        <v>508.9862526113097</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906149</v>
+        <v>434.4079907906142</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190741</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025528</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639399</v>
+        <v>68.83856774639389</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802916</v>
+        <v>13.22395305802914</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442792</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546263</v>
+        <v>1.61631951054626</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395996</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328143</v>
+        <v>55.64959718328134</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433204</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.00015534992</v>
+        <v>261.0001553499196</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876875</v>
+        <v>350.946918287687</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449895</v>
+        <v>409.5385005449888</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345739</v>
+        <v>420.3777660345733</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587856</v>
+        <v>384.5635284587851</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077333</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970984</v>
+        <v>206.3217676970981</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633079</v>
+        <v>30.02242599633074</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807084</v>
+        <v>6.514901886807074</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950634</v>
+        <v>1.355067981950632</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952474</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720636</v>
+        <v>40.7505898572063</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390985</v>
+        <v>95.80330632390971</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165516</v>
+        <v>201.4616525165513</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706799</v>
+        <v>212.4130655706795</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379549</v>
+        <v>207.3623576379546</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488043</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170112</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843487</v>
+        <v>60.92878398843478</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544878</v>
+        <v>23.61513928544874</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879982</v>
+        <v>5.789835922879973</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548924</v>
+        <v>0.07391279901548913</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127285</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108141</v>
+        <v>75.34849544108101</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149915</v>
+        <v>164.1788911149909</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459895</v>
+        <v>240.9529390459887</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012627</v>
+        <v>300.0959021012619</v>
       </c>
       <c r="N5" t="n">
-        <v>309.612180041739</v>
+        <v>309.6121800417382</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896238</v>
+        <v>278.888041189623</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353454</v>
+        <v>203.1749950353447</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446246</v>
+        <v>103.9166198446242</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665373</v>
+        <v>151.9601568170623</v>
       </c>
       <c r="K6" t="n">
-        <v>123.158716375561</v>
+        <v>123.1587163755606</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078134</v>
+        <v>212.3925385078128</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229711</v>
+        <v>267.4044666229705</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512405</v>
+        <v>423.3179548919658</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143412</v>
+        <v>241.9672840143406</v>
       </c>
       <c r="P6" t="n">
-        <v>239.9226015191507</v>
+        <v>174.6717278934026</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.417281346926</v>
+        <v>81.09946077710622</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.195757914430871</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237076</v>
+        <v>2.444126207236934</v>
       </c>
       <c r="K7" t="n">
-        <v>135.164770077109</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768678</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325205</v>
+        <v>251.9969425325201</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171835</v>
+        <v>251.4945300171832</v>
       </c>
       <c r="O7" t="n">
-        <v>216.117827762844</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819047</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691738</v>
+        <v>27.30642203691721</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9556134883069083</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
